--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26329,7 +26331,7 @@
         <v>30058.26294309334</v>
       </c>
       <c r="H2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="I2" t="n">
         <v>30058.26294309333</v>
@@ -26347,13 +26349,13 @@
         <v>30058.26294309333</v>
       </c>
       <c r="N2" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="O2" t="n">
         <v>30058.26294309333</v>
       </c>
       <c r="P2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="C4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="D4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="E4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="F4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="G4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="H4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="I4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="J4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="K4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="L4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="M4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="N4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="O4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="P4" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
     </row>
     <row r="5">
@@ -26534,22 +26536,22 @@
         <v>22543.69720731999</v>
       </c>
       <c r="G6" t="n">
-        <v>22543.69720732001</v>
+        <v>22543.69720732</v>
       </c>
       <c r="H6" t="n">
         <v>22543.69720732</v>
       </c>
       <c r="I6" t="n">
-        <v>22543.69720731999</v>
+        <v>22543.69720732</v>
       </c>
       <c r="J6" t="n">
         <v>22543.69720732</v>
       </c>
       <c r="K6" t="n">
-        <v>22543.69720731999</v>
+        <v>22543.69720732</v>
       </c>
       <c r="L6" t="n">
-        <v>22543.69720731999</v>
+        <v>22543.69720732</v>
       </c>
       <c r="M6" t="n">
         <v>22543.69720732</v>
@@ -26558,7 +26560,7 @@
         <v>22543.69720732</v>
       </c>
       <c r="O6" t="n">
-        <v>22543.69720731999</v>
+        <v>22543.69720732</v>
       </c>
       <c r="P6" t="n">
         <v>22543.69720732</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96626.51824429628</v>
+        <v>84682.28966322615</v>
       </c>
     </row>
     <row r="7">
@@ -26328,7 +26328,7 @@
         <v>30058.26294309333</v>
       </c>
       <c r="G2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="H2" t="n">
         <v>30058.26294309333</v>
@@ -26343,13 +26343,13 @@
         <v>30058.26294309333</v>
       </c>
       <c r="L2" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="M2" t="n">
         <v>30058.26294309333</v>
       </c>
       <c r="N2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="O2" t="n">
         <v>30058.26294309333</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="C4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="D4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="E4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="F4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="G4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="H4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="I4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="J4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="K4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="L4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="M4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="N4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="O4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="P4" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11083.90279268</v>
+        <v>-12511.4962868249</v>
       </c>
       <c r="C6" t="n">
-        <v>-11083.90279268</v>
+        <v>-12511.4962868249</v>
       </c>
       <c r="D6" t="n">
-        <v>-11083.90279268</v>
+        <v>-12511.4962868249</v>
       </c>
       <c r="E6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.10371317509</v>
       </c>
       <c r="F6" t="n">
-        <v>22543.69720731999</v>
+        <v>21116.10371317509</v>
       </c>
       <c r="G6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="H6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="I6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.10371317509</v>
       </c>
       <c r="J6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="K6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.10371317509</v>
       </c>
       <c r="L6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="M6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="N6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="O6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="P6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.10371317509</v>
       </c>
     </row>
   </sheetData>
